--- a/esercizio 9.xlsx
+++ b/esercizio 9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D060BF88-7EF5-403B-B405-3F57652FA3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA64023-C8C4-44F5-988D-02AAD6ECB618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
   </bookViews>
@@ -243,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -258,6 +258,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1" xr:uid="{05E7F11F-6F36-4D5E-B619-68835A6DDD65}"/>
@@ -293,16 +294,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -317,7 +318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6774180" y="182880"/>
+          <a:off x="7757160" y="137160"/>
           <a:ext cx="2499360" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -673,11 +674,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,7 +693,7 @@
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -715,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -743,8 +744,12 @@
         <f ca="1">INT(YEARFRAC(TODAY(),B2,0))</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="12">
+        <f ca="1">INT((TODAY()-B2)/365.25)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -769,11 +774,15 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H29" ca="1" si="2">INT(YEARFRAC(TODAY(),B3,0))</f>
+        <f ca="1">INT(YEARFRAC(TODAY(),B3,0))</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="12">
+        <f ca="1">INT((TODAY()-B3)/365.25)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -798,11 +807,15 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="H3:H29" ca="1" si="2">INT(YEARFRAC(TODAY(),B4,0))</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="12">
+        <f t="shared" ref="I4:I26" ca="1" si="3">INT((TODAY()-B4)/365.25)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -830,8 +843,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -859,8 +876,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -888,8 +909,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -917,8 +942,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -946,8 +975,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -975,8 +1008,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1004,8 +1041,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1033,8 +1074,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1062,8 +1107,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1091,8 +1140,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1120,8 +1173,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1149,8 +1206,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1178,8 +1239,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1207,8 +1272,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1236,8 +1305,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1265,8 +1338,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1294,8 +1371,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1323,8 +1404,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1352,8 +1437,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1381,8 +1470,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1410,8 +1503,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1439,8 +1536,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -1469,7 +1570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -1498,7 +1599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
